--- a/PLC_Docs/【詳細設計書】 PLC通信プロトタイプシステム20250415.xlsx
+++ b/PLC_Docs/【詳細設計書】 PLC通信プロトタイプシステム20250415.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terapoc15\Desktop\NakaDocs\PLC_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B581FA-AE89-40C0-A6B8-D31510C8319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A194C44-767A-4E28-BFA1-9191DEDA3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="660" windowWidth="30510" windowHeight="12405" activeTab="2" xr2:uid="{4CD4275A-3B2D-416E-BC83-2308EE41A34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4CD4275A-3B2D-416E-BC83-2308EE41A34C}"/>
   </bookViews>
   <sheets>
     <sheet name="【シーケンス図】起動-TCP通信-UDP通信【正常系】" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>main</t>
     <phoneticPr fontId="1"/>
@@ -840,13 +840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キューを空にする</t>
-    <rPh sb="4" eb="5">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーケンス図　UDP通信【異常系】</t>
     <rPh sb="13" eb="16">
       <t>イジョウケイ</t>
@@ -858,15 +851,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未送信レスポンスがあるかチェックし、あれば送信リストに加える</t>
+    <t>UDP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未送信ファイル読み出し</t>
     <rPh sb="0" eb="3">
       <t>ミソウシン</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKだったレスポンスをファイルから削除</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKだったレスポンスをリストから削除</t>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル書き出し</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『IsConnectedServer』をfalse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『IsConnectedServer』がfalseだったら、リストの中は送らず、テスト送信をし続け応答を待つ</t>
+    <rPh sb="34" eb="35">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>クワ</t>
+    <rPh sb="47" eb="48">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト読み出し</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューを空にする</t>
+    <rPh sb="4" eb="5">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n-2個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -994,7 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1310,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,24 +1335,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1296,22 +1358,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1694,7 +1756,7 @@
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>129</xdr:col>
+      <xdr:col>119</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
@@ -1830,7 +1892,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>124</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
@@ -1883,7 +1945,7 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>124</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
@@ -2099,7 +2161,7 @@
       <xdr:rowOff>35720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
+      <xdr:col>118</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
@@ -2283,15 +2345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>94</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2306,8 +2368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13001625" y="9563100"/>
-          <a:ext cx="5679281" cy="11906"/>
+          <a:off x="13180219" y="12358688"/>
+          <a:ext cx="5715000" cy="11906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2499,16 +2561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2522,9 +2584,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13061156" y="10010776"/>
-          <a:ext cx="3807618" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="13156405" y="9929812"/>
+          <a:ext cx="3738564" cy="11909"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2552,16 +2614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>134</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2576,8 +2638,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17106900" y="10246518"/>
-          <a:ext cx="7610475" cy="11907"/>
+          <a:off x="17121188" y="10108406"/>
+          <a:ext cx="7834312" cy="23812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2605,16 +2667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>134</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2629,8 +2691,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17154525" y="10706100"/>
-          <a:ext cx="7527131" cy="0"/>
+          <a:off x="17109282" y="10584656"/>
+          <a:ext cx="7810499" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2659,15 +2721,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2682,8 +2744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13001625" y="10822781"/>
-          <a:ext cx="3879056" cy="1"/>
+          <a:off x="13156407" y="14001750"/>
+          <a:ext cx="3679030" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2713,14 +2775,14 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>59529</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>139</xdr:col>
+      <xdr:col>129</xdr:col>
       <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2735,8 +2797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260929" y="8893968"/>
-          <a:ext cx="14432757" cy="3388519"/>
+          <a:off x="11394279" y="8762999"/>
+          <a:ext cx="14573251" cy="4964907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2785,7 +2847,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>リストにレスポンスがある限りループ</a:t>
+            <a:t>無限ループ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2936,16 +2998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2959,12 +3021,649 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13156406" y="9263062"/>
-          <a:ext cx="9822656" cy="11907"/>
+        <a:xfrm>
+          <a:off x="17121187" y="13370719"/>
+          <a:ext cx="7870032" cy="11906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FA4603-7D81-40FB-9009-6EE556F4BC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12715876" y="8810625"/>
+          <a:ext cx="12977811" cy="3036093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[loop] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>未送信ファイルに中身がある限りループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B16E45-5396-4F3B-A9F2-C0C18ED89447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13156407" y="9179720"/>
+          <a:ext cx="11906" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E926F2-77BF-4B2A-A443-A69DC54FB9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13168312" y="10763250"/>
+          <a:ext cx="3714750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF17C40-116B-4AE6-954A-6937084439FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13192125" y="11132344"/>
+          <a:ext cx="11906" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>11908</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE2BA3A-EE16-414F-B032-B0AAE39D0EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13180219" y="13204032"/>
+          <a:ext cx="3738564" cy="11909"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB882FF-1EF8-44BF-B22A-27EC7A46CD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17121187" y="13894594"/>
+          <a:ext cx="7810499" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50D6B79-AD54-4121-AA78-C9476CE68663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13180219" y="14561344"/>
+          <a:ext cx="5643562" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530B7AD5-8044-463A-A19D-A823A9C89408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19026187" y="14489907"/>
+          <a:ext cx="3298032" cy="535780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[ if ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YYYY/MM/DD/12:00:00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リストに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個以上溜まっていたら</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B96E678-2B74-4EA0-8D9E-02D293CE790A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19061906" y="15263812"/>
+          <a:ext cx="1833563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E439365C-0B7E-489D-B30B-CAE073313E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21085969" y="15406688"/>
+          <a:ext cx="11906" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -3526,14 +4225,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3548,7 +4247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2714625" y="4167187"/>
+          <a:off x="2714625" y="4917281"/>
           <a:ext cx="2381250" cy="392905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3653,15 +4352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3678,66 +4377,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036094" y="5012531"/>
+          <a:off x="3059907" y="5738812"/>
           <a:ext cx="11906" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 5020108"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>202405</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C90AB7-D204-4C45-8054-F8BB9E65580F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3036093" y="4810125"/>
-          <a:ext cx="1833563" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -3838,10 +4484,583 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FF0792-5F54-4BC6-B31F-FA1386EF670C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036094" y="5417344"/>
+          <a:ext cx="1833563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAE5E57-6387-4E7A-83C1-BCADDEF1AD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988469" y="2464594"/>
+          <a:ext cx="1952625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41126E8F-4BC3-4AB0-ADA8-8B0A498D0CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5131594" y="2667001"/>
+          <a:ext cx="3857625" cy="11905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F084F6C7-62C2-4D6F-B859-2E851FACB252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="750094"/>
+          <a:ext cx="3024187" cy="1059656"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UDP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の接続不可状態はグローバルな変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>『IsConnectedServer』bool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で管理する予定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>true</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EF3CC1-D5EA-47D0-A2E9-5B9D03956785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3131344" y="3417095"/>
+          <a:ext cx="11906" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C97B40-DEA9-4B5A-A9DF-BC7A0CC2E731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5179219" y="2869407"/>
+          <a:ext cx="1357312" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[ if ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>秒経過</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>199630</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>9403</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169386</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="十字形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381AE8B7-ABA2-3EE6-F62F-64D446A07109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2705844">
+          <a:off x="5906091" y="1875075"/>
+          <a:ext cx="3744007" cy="3655492"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 43593"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B28E314-1756-3171-F23A-53FB2B6BC305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="5345906"/>
+          <a:ext cx="7310437" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>正常系シートの構造にすると、異常系での処理はいらない想定。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（サーバーからの応答をまってサーバーと不通か確認する処理も不要）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5013,7 +6232,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6691,11 +7910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3A105-148C-4B32-B386-6C3F7A0E87B0}">
-  <dimension ref="A1:EG69"/>
+  <dimension ref="A1:DW84"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DH56" sqref="DH56"/>
+    <sheetView topLeftCell="AF1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DE77" sqref="DE77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6704,277 +7923,257 @@
     <col min="103" max="103" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:127" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
-      <c r="CL1" s="40"/>
-      <c r="CM1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CO1" s="40"/>
-      <c r="CP1" s="40"/>
-      <c r="CQ1" s="40"/>
-      <c r="CR1" s="40"/>
-      <c r="CS1" s="40"/>
-      <c r="CT1" s="40"/>
-      <c r="CU1" s="40"/>
-      <c r="CV1" s="40"/>
-      <c r="CW1" s="40"/>
-      <c r="CX1" s="40"/>
-      <c r="CY1" s="40"/>
-      <c r="CZ1" s="40"/>
-      <c r="DA1" s="40"/>
-      <c r="DB1" s="40"/>
-      <c r="DC1" s="40"/>
-      <c r="DD1" s="40"/>
-      <c r="DE1" s="40"/>
-      <c r="DF1" s="40"/>
-      <c r="DG1" s="40"/>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="40"/>
-      <c r="DK1" s="40"/>
-      <c r="DL1" s="40"/>
-      <c r="DM1" s="40"/>
-      <c r="DN1" s="40"/>
-      <c r="DO1" s="40"/>
-      <c r="DP1" s="40"/>
-      <c r="DQ1" s="40"/>
-      <c r="DR1" s="40"/>
-      <c r="DS1" s="40"/>
-      <c r="DT1" s="40"/>
-      <c r="DU1" s="40"/>
-      <c r="DV1" s="40"/>
-      <c r="DW1" s="40"/>
-      <c r="DX1" s="40"/>
-      <c r="DY1" s="40"/>
-      <c r="DZ1" s="40"/>
-      <c r="EA1" s="40"/>
-      <c r="EB1" s="40"/>
-    </row>
-    <row r="2" spans="1:137" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
-      <c r="CJ2" s="40"/>
-      <c r="CK2" s="40"/>
-      <c r="CL2" s="40"/>
-      <c r="CM2" s="40"/>
-      <c r="CN2" s="40"/>
-      <c r="CO2" s="40"/>
-      <c r="CP2" s="40"/>
-      <c r="CQ2" s="40"/>
-      <c r="CR2" s="40"/>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
-      <c r="CU2" s="40"/>
-      <c r="CV2" s="40"/>
-      <c r="CW2" s="40"/>
-      <c r="CX2" s="40"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
-      <c r="DB2" s="40"/>
-      <c r="DC2" s="40"/>
-      <c r="DD2" s="40"/>
-      <c r="DE2" s="40"/>
-      <c r="DF2" s="40"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="40"/>
-      <c r="DI2" s="40"/>
-      <c r="DJ2" s="40"/>
-      <c r="DK2" s="40"/>
-      <c r="DL2" s="40"/>
-      <c r="DM2" s="40"/>
-      <c r="DN2" s="40"/>
-      <c r="DO2" s="40"/>
-      <c r="DP2" s="40"/>
-      <c r="DQ2" s="40"/>
-      <c r="DR2" s="40"/>
-      <c r="DS2" s="40"/>
-      <c r="DT2" s="40"/>
-      <c r="DU2" s="40"/>
-      <c r="DV2" s="40"/>
-      <c r="DW2" s="40"/>
-      <c r="DX2" s="40"/>
-      <c r="DY2" s="40"/>
-      <c r="DZ2" s="40"/>
-      <c r="EA2" s="40"/>
-      <c r="EB2" s="40"/>
-    </row>
-    <row r="3" spans="1:137" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37"/>
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="37"/>
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="37"/>
+      <c r="DB1" s="37"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="37"/>
+      <c r="DE1" s="37"/>
+      <c r="DF1" s="37"/>
+      <c r="DG1" s="37"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="37"/>
+      <c r="DJ1" s="37"/>
+      <c r="DK1" s="37"/>
+      <c r="DL1" s="37"/>
+      <c r="DM1" s="37"/>
+      <c r="DN1" s="37"/>
+      <c r="DO1" s="37"/>
+      <c r="DP1" s="37"/>
+      <c r="DQ1" s="37"/>
+      <c r="DR1" s="37"/>
+    </row>
+    <row r="2" spans="1:127" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="37"/>
+      <c r="CP2" s="37"/>
+      <c r="CQ2" s="37"/>
+      <c r="CR2" s="37"/>
+      <c r="CS2" s="37"/>
+      <c r="CT2" s="37"/>
+      <c r="CU2" s="37"/>
+      <c r="CV2" s="37"/>
+      <c r="CW2" s="37"/>
+      <c r="CX2" s="37"/>
+      <c r="CY2" s="37"/>
+      <c r="CZ2" s="37"/>
+      <c r="DA2" s="37"/>
+      <c r="DB2" s="37"/>
+      <c r="DC2" s="37"/>
+      <c r="DD2" s="37"/>
+      <c r="DE2" s="37"/>
+      <c r="DF2" s="37"/>
+      <c r="DG2" s="37"/>
+      <c r="DH2" s="37"/>
+      <c r="DI2" s="37"/>
+      <c r="DJ2" s="37"/>
+      <c r="DK2" s="37"/>
+      <c r="DL2" s="37"/>
+      <c r="DM2" s="37"/>
+      <c r="DN2" s="37"/>
+      <c r="DO2" s="37"/>
+      <c r="DP2" s="37"/>
+      <c r="DQ2" s="37"/>
+      <c r="DR2" s="37"/>
+    </row>
+    <row r="3" spans="1:127" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7097,216 +8296,184 @@
       <c r="DP3" s="1"/>
       <c r="DQ3" s="1"/>
       <c r="DR3" s="1"/>
-      <c r="DS3" s="1"/>
-      <c r="DT3" s="1"/>
-      <c r="DU3" s="1"/>
-      <c r="DV3" s="1"/>
-      <c r="DW3" s="1"/>
-      <c r="DX3" s="1"/>
-      <c r="DY3" s="1"/>
-      <c r="DZ3" s="1"/>
-      <c r="EA3" s="1"/>
-      <c r="EB3" s="1"/>
-    </row>
-    <row r="5" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="41" t="s">
+    </row>
+    <row r="5" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="M5" s="34" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="M5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
-      <c r="W5" s="34" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
+      <c r="W5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
-      <c r="AG5" s="34" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
+      <c r="AG5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="36"/>
-      <c r="AQ5" s="34" t="s">
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46"/>
+      <c r="AQ5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="36"/>
-      <c r="BA5" s="34" t="s">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="46"/>
+      <c r="BA5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="35"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="36"/>
-      <c r="BK5" s="34" t="s">
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BK5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BL5" s="35"/>
-      <c r="BM5" s="35"/>
-      <c r="BN5" s="35"/>
-      <c r="BO5" s="36"/>
-      <c r="BU5" s="34" t="s">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="46"/>
+      <c r="BU5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="BV5" s="35"/>
-      <c r="BW5" s="35"/>
-      <c r="BX5" s="35"/>
-      <c r="BY5" s="36"/>
-      <c r="CE5" s="34" t="s">
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="45"/>
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="46"/>
+      <c r="CE5" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="CF5" s="35"/>
-      <c r="CG5" s="35"/>
-      <c r="CH5" s="35"/>
-      <c r="CI5" s="36"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="46"/>
+      <c r="CO5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="CP5" s="35"/>
-      <c r="CQ5" s="35"/>
-      <c r="CR5" s="35"/>
-      <c r="CS5" s="36"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="46"/>
       <c r="CT5" s="21"/>
       <c r="CU5" s="21"/>
       <c r="CV5" s="21"/>
       <c r="CW5" s="21"/>
       <c r="CX5" s="21"/>
-      <c r="CY5" s="34" t="s">
+      <c r="CY5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="CZ5" s="35"/>
-      <c r="DA5" s="35"/>
-      <c r="DB5" s="35"/>
-      <c r="DC5" s="36"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="46"/>
       <c r="DD5" s="21"/>
       <c r="DE5" s="21"/>
       <c r="DF5" s="21"/>
-      <c r="DG5" s="21"/>
-      <c r="DH5" s="21"/>
-      <c r="DI5" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="49"/>
-      <c r="DN5" s="21"/>
-      <c r="DO5" s="21"/>
-      <c r="DP5" s="21"/>
-      <c r="DS5" s="28" t="s">
+      <c r="DI5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="DT5" s="29"/>
-      <c r="DU5" s="29"/>
-      <c r="DV5" s="29"/>
-      <c r="DW5" s="30"/>
-      <c r="EC5" s="28" t="s">
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="33"/>
+      <c r="DS5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="ED5" s="29"/>
-      <c r="EE5" s="29"/>
-      <c r="EF5" s="29"/>
-      <c r="EG5" s="30"/>
-    </row>
-    <row r="6" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="39"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="39"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="39"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="39"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="39"/>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="38"/>
-      <c r="BW6" s="38"/>
-      <c r="BX6" s="38"/>
-      <c r="BY6" s="39"/>
-      <c r="CE6" s="37"/>
-      <c r="CF6" s="38"/>
-      <c r="CG6" s="38"/>
-      <c r="CH6" s="38"/>
-      <c r="CI6" s="39"/>
-      <c r="CO6" s="37"/>
-      <c r="CP6" s="38"/>
-      <c r="CQ6" s="38"/>
-      <c r="CR6" s="38"/>
-      <c r="CS6" s="39"/>
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="33"/>
+    </row>
+    <row r="6" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="49"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="49"/>
+      <c r="BA6" s="47"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="49"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" s="48"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="48"/>
+      <c r="BO6" s="49"/>
+      <c r="BU6" s="47"/>
+      <c r="BV6" s="48"/>
+      <c r="BW6" s="48"/>
+      <c r="BX6" s="48"/>
+      <c r="BY6" s="49"/>
+      <c r="CE6" s="47"/>
+      <c r="CF6" s="48"/>
+      <c r="CG6" s="48"/>
+      <c r="CH6" s="48"/>
+      <c r="CI6" s="49"/>
+      <c r="CO6" s="47"/>
+      <c r="CP6" s="48"/>
+      <c r="CQ6" s="48"/>
+      <c r="CR6" s="48"/>
+      <c r="CS6" s="49"/>
       <c r="CT6" s="21"/>
       <c r="CU6" s="21"/>
       <c r="CV6" s="21"/>
       <c r="CW6" s="21"/>
       <c r="CX6" s="21"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="38"/>
-      <c r="DA6" s="38"/>
-      <c r="DB6" s="38"/>
-      <c r="DC6" s="39"/>
+      <c r="CY6" s="47"/>
+      <c r="CZ6" s="48"/>
+      <c r="DA6" s="48"/>
+      <c r="DB6" s="48"/>
+      <c r="DC6" s="49"/>
       <c r="DD6" s="21"/>
       <c r="DE6" s="21"/>
       <c r="DF6" s="21"/>
-      <c r="DG6" s="21"/>
-      <c r="DH6" s="21"/>
-      <c r="DI6" s="50"/>
-      <c r="DJ6" s="51"/>
-      <c r="DK6" s="51"/>
-      <c r="DL6" s="51"/>
-      <c r="DM6" s="52"/>
-      <c r="DN6" s="21"/>
-      <c r="DO6" s="21"/>
-      <c r="DP6" s="21"/>
-      <c r="DS6" s="31"/>
-      <c r="DT6" s="32"/>
-      <c r="DU6" s="32"/>
-      <c r="DV6" s="32"/>
-      <c r="DW6" s="33"/>
-      <c r="EC6" s="31"/>
-      <c r="ED6" s="32"/>
-      <c r="EE6" s="32"/>
-      <c r="EF6" s="32"/>
-      <c r="EG6" s="33"/>
-    </row>
-    <row r="7" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DI6" s="34"/>
+      <c r="DJ6" s="35"/>
+      <c r="DK6" s="35"/>
+      <c r="DL6" s="35"/>
+      <c r="DM6" s="36"/>
+      <c r="DS6" s="34"/>
+      <c r="DT6" s="35"/>
+      <c r="DU6" s="35"/>
+      <c r="DV6" s="35"/>
+      <c r="DW6" s="36"/>
+    </row>
+    <row r="7" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AF7" t="s">
         <v>41</v>
       </c>
@@ -7317,7 +8484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -7326,75 +8493,75 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E11" s="4"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" s="4"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="4"/>
       <c r="K14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="4"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="4"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="4"/>
       <c r="I18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="AI19" s="8"/>
     </row>
-    <row r="20" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E20" s="4"/>
       <c r="AI20" s="9"/>
     </row>
-    <row r="21" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
       <c r="AI21" s="9"/>
     </row>
-    <row r="22" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="4"/>
       <c r="AI22" s="9"/>
       <c r="AK22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="4"/>
       <c r="AI23" s="9"/>
       <c r="AS23" s="6"/>
     </row>
-    <row r="24" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" s="4"/>
       <c r="AI24" s="9"/>
       <c r="AS24" s="11"/>
     </row>
-    <row r="25" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" s="4"/>
       <c r="AI25" s="9"/>
       <c r="AS25" s="11"/>
     </row>
-    <row r="26" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" s="4"/>
       <c r="AI26" s="9"/>
       <c r="AS26" s="11"/>
@@ -7402,7 +8569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" s="4"/>
       <c r="AI27" s="9"/>
       <c r="AS27" s="11"/>
@@ -7411,7 +8578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" s="4"/>
       <c r="AI28" s="9"/>
       <c r="AS28" s="11"/>
@@ -7421,23 +8588,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
       <c r="AI29" s="9"/>
       <c r="AS29" s="11"/>
       <c r="BC29" s="13"/>
       <c r="BW29" s="13"/>
-      <c r="DU29" s="22"/>
-    </row>
-    <row r="30" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DK29" s="22"/>
+    </row>
+    <row r="30" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="4"/>
       <c r="AI30" s="9"/>
       <c r="AS30" s="11"/>
       <c r="BC30" s="13"/>
       <c r="BW30" s="13"/>
-      <c r="DU30" s="23"/>
-    </row>
-    <row r="31" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DK30" s="23"/>
+    </row>
+    <row r="31" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="4"/>
       <c r="AI31" s="9"/>
       <c r="AK31" s="27" t="s">
@@ -7446,9 +8613,9 @@
       <c r="AS31" s="11"/>
       <c r="BC31" s="13"/>
       <c r="BW31" s="13"/>
-      <c r="DU31" s="23"/>
-    </row>
-    <row r="32" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DK31" s="23"/>
+    </row>
+    <row r="32" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="4"/>
       <c r="AI32" s="9"/>
       <c r="AS32" s="11"/>
@@ -7457,9 +8624,9 @@
       <c r="CM32" t="s">
         <v>44</v>
       </c>
-      <c r="DU32" s="17"/>
-    </row>
-    <row r="33" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DK32" s="17"/>
+    </row>
+    <row r="33" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="4"/>
       <c r="AI33" s="9"/>
       <c r="AS33" s="11"/>
@@ -7469,25 +8636,25 @@
       </c>
       <c r="BW33" s="14"/>
     </row>
-    <row r="34" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" s="4"/>
       <c r="AI34" s="9"/>
       <c r="AS34" s="11"/>
       <c r="BC34" s="13"/>
     </row>
-    <row r="35" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E35" s="4"/>
       <c r="AI35" s="9"/>
       <c r="AS35" s="11"/>
       <c r="BC35" s="13"/>
     </row>
-    <row r="36" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" s="4"/>
       <c r="AI36" s="9"/>
       <c r="AS36" s="11"/>
       <c r="BC36" s="13"/>
     </row>
-    <row r="37" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" s="4"/>
       <c r="AI37" s="9"/>
       <c r="AS37" s="11"/>
@@ -7496,21 +8663,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" s="4"/>
       <c r="AI38" s="9"/>
       <c r="AS38" s="11"/>
       <c r="BC38" s="13"/>
       <c r="CQ38" s="6"/>
     </row>
-    <row r="39" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E39" s="4"/>
       <c r="AI39" s="9"/>
       <c r="AS39" s="11"/>
       <c r="BC39" s="13"/>
       <c r="CQ39" s="11"/>
     </row>
-    <row r="40" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
       <c r="AI40" s="9"/>
       <c r="AK40" s="27" t="s">
@@ -7523,7 +8690,7 @@
       <c r="BC40" s="13"/>
       <c r="CQ40" s="11"/>
     </row>
-    <row r="41" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E41" s="4"/>
       <c r="AI41" s="9"/>
       <c r="AS41" s="11"/>
@@ -7533,142 +8700,241 @@
       </c>
       <c r="CQ41" s="11"/>
     </row>
-    <row r="42" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
       <c r="AI42" s="10"/>
       <c r="AS42" s="7"/>
       <c r="BC42" s="14"/>
-      <c r="CQ42" s="11"/>
-    </row>
-    <row r="43" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ42" s="7"/>
+    </row>
+    <row r="43" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" s="4"/>
-      <c r="CQ43" s="11"/>
-    </row>
-    <row r="44" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" s="4"/>
-      <c r="CQ44" s="11"/>
-    </row>
-    <row r="45" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="4"/>
-      <c r="CQ45" s="7"/>
-      <c r="DK45" s="22"/>
-    </row>
-    <row r="46" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" s="4"/>
-      <c r="CC46" t="s">
-        <v>82</v>
-      </c>
-      <c r="DK46" s="23"/>
-    </row>
-    <row r="47" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM46" s="24"/>
+    </row>
+    <row r="47" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E47" s="4"/>
-      <c r="BM47" s="24"/>
-    </row>
-    <row r="48" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM47" s="25"/>
+    </row>
+    <row r="48" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E48" s="4"/>
       <c r="BM48" s="25"/>
-      <c r="BT48" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ48" s="6"/>
-    </row>
-    <row r="49" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BN48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" s="4"/>
       <c r="BM49" s="25"/>
-      <c r="CQ49" s="7"/>
-    </row>
-    <row r="50" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BT49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E50" s="4"/>
       <c r="BM50" s="25"/>
-      <c r="BU50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CG50" s="24"/>
+      <c r="CW50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E51" s="4"/>
       <c r="BM51" s="25"/>
-      <c r="CH51" s="24"/>
-      <c r="CR51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CG51" s="25"/>
+      <c r="DU51" s="22"/>
+    </row>
+    <row r="52" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E52" s="4"/>
       <c r="BM52" s="25"/>
-      <c r="CH52" s="25"/>
-      <c r="EE52" s="22"/>
-    </row>
-    <row r="53" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CG52" s="25"/>
+      <c r="DU52" s="23"/>
+    </row>
+    <row r="53" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E53" s="4"/>
       <c r="BM53" s="25"/>
-      <c r="CH53" s="25"/>
-      <c r="EE53" s="23"/>
-    </row>
-    <row r="54" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CG53" s="25"/>
+      <c r="DU53" s="23"/>
+    </row>
+    <row r="54" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E54" s="4"/>
       <c r="BM54" s="25"/>
-      <c r="CH54" s="25"/>
-      <c r="EE54" s="23"/>
-    </row>
-    <row r="55" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CG54" s="26"/>
+      <c r="CW54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" s="4"/>
       <c r="BM55" s="25"/>
-      <c r="CH55" s="26"/>
-      <c r="CR55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E56" s="4"/>
       <c r="BM56" s="25"/>
     </row>
-    <row r="57" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM57" s="25"/>
+    </row>
+    <row r="58" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM58" s="25"/>
+      <c r="BN58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM59" s="25"/>
+    </row>
+    <row r="60" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM60" s="25"/>
+    </row>
+    <row r="61" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM61" s="25"/>
+      <c r="BT61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM62" s="25"/>
+      <c r="CQ62" s="6"/>
+    </row>
+    <row r="63" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM63" s="25"/>
+      <c r="CQ63" s="7"/>
+    </row>
+    <row r="64" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM64" s="25"/>
+    </row>
+    <row r="65" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM65" s="25"/>
+      <c r="BT65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM66" s="25"/>
+      <c r="CG66" s="24"/>
+      <c r="CR66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BM67" s="25"/>
+      <c r="CG67" s="25"/>
+      <c r="DU67" s="22"/>
+    </row>
+    <row r="68" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E69" s="5"/>
+      <c r="BM68" s="25"/>
+      <c r="CG68" s="25"/>
+      <c r="DU68" s="23"/>
+    </row>
+    <row r="69" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E69" s="4"/>
+      <c r="BM69" s="25"/>
+      <c r="CG69" s="25"/>
+      <c r="DU69" s="23"/>
+    </row>
+    <row r="70" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E70" s="4"/>
+      <c r="BM70" s="25"/>
+      <c r="CG70" s="26"/>
+      <c r="CR70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E71" s="4"/>
+      <c r="BM71" s="25"/>
+    </row>
+    <row r="72" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E72" s="4"/>
+      <c r="BM72" s="25"/>
+      <c r="BT72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E73" s="4"/>
+      <c r="BM73" s="25"/>
+      <c r="CQ73" s="6"/>
+    </row>
+    <row r="74" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E74" s="4"/>
+      <c r="BM74" s="25"/>
+      <c r="CQ74" s="11"/>
+    </row>
+    <row r="75" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E75" s="4"/>
+      <c r="BM75" s="25"/>
+      <c r="CQ75" s="11"/>
+    </row>
+    <row r="76" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E76" s="4"/>
+      <c r="BM76" s="25"/>
+      <c r="CQ76" s="7"/>
+      <c r="DA76" s="28"/>
+      <c r="DE76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E77" s="4"/>
+      <c r="BM77" s="25"/>
+      <c r="CT77" t="s">
+        <v>88</v>
+      </c>
+      <c r="DA77" s="29"/>
+      <c r="DE77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E78" s="4"/>
+      <c r="BM78" s="26"/>
+      <c r="DA78" s="29"/>
+    </row>
+    <row r="79" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E79" s="4"/>
+      <c r="DA79" s="30"/>
+    </row>
+    <row r="80" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E84" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="CO5:CS6"/>
-    <mergeCell ref="CY5:DC6"/>
+  <mergeCells count="14">
     <mergeCell ref="DS5:DW6"/>
-    <mergeCell ref="EC5:EG6"/>
-    <mergeCell ref="DI5:DM6"/>
-    <mergeCell ref="A1:EB2"/>
+    <mergeCell ref="A1:DR2"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="M5:Q6"/>
     <mergeCell ref="W5:AA6"/>
@@ -7678,6 +8944,9 @@
     <mergeCell ref="BK5:BO6"/>
     <mergeCell ref="BU5:BY6"/>
     <mergeCell ref="CE5:CI6"/>
+    <mergeCell ref="CO5:CS6"/>
+    <mergeCell ref="CY5:DC6"/>
+    <mergeCell ref="DI5:DM6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7690,136 +8959,136 @@
   <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12:Y31"/>
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
     </row>
     <row r="2" spans="1:60" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
     </row>
     <row r="3" spans="1:60" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -7884,86 +9153,86 @@
       <c r="BH3" s="1"/>
     </row>
     <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="M5" s="34" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="M5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
-      <c r="W5" s="34" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
+      <c r="W5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
-      <c r="AG5" s="34" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
+      <c r="AG5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="36"/>
-      <c r="AQ5" s="34" t="s">
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46"/>
+      <c r="AQ5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="36"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="46"/>
       <c r="AW5" s="21"/>
       <c r="AX5" s="21"/>
       <c r="AY5" s="21"/>
-      <c r="BA5" s="28" t="s">
+      <c r="BA5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="30"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="33"/>
     </row>
     <row r="6" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="39"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="39"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="49"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="49"/>
       <c r="AW6" s="21"/>
       <c r="AX6" s="21"/>
       <c r="AY6" s="21"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="36"/>
     </row>
     <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -8083,9 +9352,6 @@
     <row r="24" spans="5:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" s="4"/>
       <c r="O24" s="9"/>
-      <c r="Q24" t="s">
-        <v>79</v>
-      </c>
       <c r="Y24" s="11"/>
       <c r="AI24" s="13"/>
       <c r="AK24" t="s">
@@ -8116,8 +9382,8 @@
     <row r="28" spans="5:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" s="4"/>
       <c r="O28" s="9"/>
-      <c r="Q28" t="s">
-        <v>78</v>
+      <c r="R28" t="s">
+        <v>89</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="AI28" s="14"/>
@@ -8135,6 +9401,9 @@
     <row r="31" spans="5:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="4"/>
       <c r="O31" s="9"/>
+      <c r="Q31" t="s">
+        <v>78</v>
+      </c>
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="5:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8173,110 +9442,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0BA5A6-0DF2-436A-816A-7B877ED71950}">
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="BX13" sqref="BX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="21" width="2.5" customWidth="1"/>
-    <col min="34" max="34" width="2.625" customWidth="1"/>
+    <col min="2" max="11" width="2.5" customWidth="1"/>
+    <col min="24" max="24" width="2.625" customWidth="1"/>
+    <col min="38" max="40" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
+      <c r="A1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
     </row>
     <row r="2" spans="1:48" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -8324,157 +9594,165 @@
       <c r="AQ3" s="1"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="N5" s="34" t="s">
+      <c r="D5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="X5" s="34" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="N5" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="36"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="36"/>
+      <c r="AH5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="33"/>
       <c r="AM5" s="21"/>
-      <c r="AR5" s="28" t="s">
+      <c r="AN5" s="21"/>
+      <c r="AR5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="30"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="33"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="39"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="49"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="39"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="36"/>
       <c r="AM6" s="21"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33"/>
+      <c r="AN6" s="21"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="36"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="11"/>
-    </row>
     <row r="12" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="11"/>
+      <c r="E12" s="24"/>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="11"/>
+      <c r="E13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="W13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="11"/>
+      <c r="E14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="AT14" s="22"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F15" s="11"/>
+      <c r="E15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="AT15" s="23"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F29" s="7"/>
+      <c r="E16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="AT16" s="23"/>
+    </row>
+    <row r="17" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="25"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="U18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="25"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="25"/>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AR5:AV6"/>
+    <mergeCell ref="X5:AB6"/>
+    <mergeCell ref="A1:AQ2"/>
+    <mergeCell ref="N5:R6"/>
+    <mergeCell ref="D5:H6"/>
     <mergeCell ref="AH5:AL6"/>
-    <mergeCell ref="A1:AQ2"/>
-    <mergeCell ref="D5:H6"/>
-    <mergeCell ref="X5:AB6"/>
-    <mergeCell ref="N5:R6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8489,174 +9767,174 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
     </row>
     <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
     </row>
     <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -9045,181 +10323,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA526B4-576F-4645-9213-B355672E4A16}">
   <dimension ref="A1:CD69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BM51" sqref="BM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
     </row>
     <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
     </row>
     <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
